--- a/scripts/data/resultados/top5_impo_procesado.xlsx
+++ b/scripts/data/resultados/top5_impo_procesado.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\impo_sectorial\scripts\data\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C130A5-640B-4E35-BC44-472C9AF43A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC27A6-C257-468A-A481-AC6B59DFF36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="175">
   <si>
     <t>hs6</t>
   </si>
@@ -540,13 +541,22 @@
   </si>
   <si>
     <t>(Varios elementos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COMERCIO</t>
+  </si>
+  <si>
+    <t>CONSUMO</t>
+  </si>
+  <si>
+    <t>% sobre total importado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,16 +572,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -594,11 +617,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -611,9 +694,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1941,29 +2056,29 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9EA32D-0246-48CC-A132-869F1CBA8C1B}" name="TablaDinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9EA32D-0246-48CC-A132-869F1CBA8C1B}" name="TablaDinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="22">
-        <item h="1" x="20"/>
-        <item h="1" x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item h="1" x="18"/>
+        <item h="1" x="17"/>
+        <item h="1" x="16"/>
         <item h="1" x="15"/>
-        <item h="1" x="14"/>
-        <item x="13"/>
-        <item x="12"/>
+        <item x="14"/>
+        <item h="1" x="13"/>
+        <item h="1" x="12"/>
         <item h="1" x="11"/>
-        <item x="10"/>
+        <item h="1" x="10"/>
         <item h="1" x="9"/>
         <item h="1" x="8"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
         <item h="1" x="4"/>
         <item h="1" x="3"/>
         <item h="1" x="2"/>
@@ -2197,112 +2312,112 @@
   </rowFields>
   <rowItems count="37">
     <i>
-      <x v="3"/>
+      <x/>
     </i>
     <i r="1">
-      <x v="7"/>
+      <x v="21"/>
     </i>
     <i r="1">
-      <x v="62"/>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
     </i>
     <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
-      <x v="58"/>
+      <x v="64"/>
     </i>
     <i r="1">
-      <x v="61"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="62"/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x v="65"/>
+      <x v="38"/>
     </i>
     <i r="1">
-      <x v="61"/>
+      <x v="45"/>
     </i>
     <i r="1">
-      <x v="58"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="52"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="9"/>
     </i>
     <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
       <x v="17"/>
     </i>
     <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
+      <x v="52"/>
     </i>
     <i r="1">
       <x v="60"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
+      <x v="20"/>
     </i>
     <i r="1">
       <x v="14"/>
     </i>
     <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i>
       <x v="19"/>
     </i>
     <i r="1">
-      <x v="7"/>
+      <x v="38"/>
     </i>
     <i r="1">
-      <x v="41"/>
+      <x v="30"/>
     </i>
     <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
+      <x v="63"/>
     </i>
     <i t="grand">
       <x/>
@@ -2653,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87543C73-5802-4A5C-B495-8A01FDC006C8}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,278 +2804,278 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2">
-        <v>0.11611732042606519</v>
+        <v>0.10165121702788391</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
-        <v>7.5864324852313925E-2</v>
+        <v>7.7038859301049811E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
-        <v>5.4092147284337422E-2</v>
+        <v>7.1524659283160388E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
-        <v>5.2766819098685948E-2</v>
+        <v>7.016556279784561E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2">
-        <v>2.9880705371544889E-2</v>
+        <v>6.3210227651744541E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2">
-        <v>0.1152669560508163</v>
+        <v>0.1147799529534525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2">
-        <v>7.5092637287326597E-2</v>
+        <v>0.10755110571597851</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>7.022243293438063E-2</v>
+        <v>9.3645948538892534E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2">
-        <v>5.6942272304401458E-2</v>
+        <v>8.062074355789052E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2">
-        <v>2.4320462562026919E-2</v>
+        <v>7.9145263416188813E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2">
-        <v>0.53748865966219828</v>
+        <v>0.1484203091440941</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2">
-        <v>9.7727903761371956E-2</v>
+        <v>0.12247459773310709</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2">
-        <v>8.9447304015370058E-2</v>
+        <v>5.4076304409752432E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B21" s="2">
-        <v>8.2898090107465849E-2</v>
+        <v>5.2540399732300888E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2">
-        <v>5.3850596476673528E-2</v>
+        <v>5.1113281535184157E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2">
-        <v>0.61623464506821191</v>
+        <v>8.30622103447025E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2">
-        <v>8.8065872702585729E-2</v>
+        <v>7.7607528379210658E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2">
-        <v>6.1994895158563268E-2</v>
+        <v>7.7121979169986921E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2">
-        <v>5.370482898861996E-2</v>
+        <v>5.1793304403056913E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2">
-        <v>3.0580197703053438E-2</v>
+        <v>4.997057673551808E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
-        <v>0.51101421698112581</v>
+        <v>0.31549170067247118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" s="2">
-        <v>0.21576244009501119</v>
+        <v>7.3696975467879899E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2">
-        <v>5.9523360931789691E-2</v>
+        <v>7.0723336112625296E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2">
-        <v>2.7133981178591001E-2</v>
+        <v>4.9621319140833037E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2">
-        <v>2.4844770849824609E-2</v>
+        <v>3.8388163062539143E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2">
-        <v>0.43130864289151521</v>
+        <v>0.11838685768141539</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2">
-        <v>5.9223906860178942E-2</v>
+        <v>0.1138743853395264</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2">
-        <v>3.2323815383556387E-2</v>
+        <v>8.7562231442676261E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B39" s="2">
-        <v>3.1589951142252742E-2</v>
+        <v>5.3439661317618507E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
-        <v>2.8608126689713711E-2</v>
+        <v>4.464857672422877E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +3083,7 @@
         <v>169</v>
       </c>
       <c r="B41" s="2">
-        <v>3.8038922848195726</v>
+        <v>2.5933472387928149</v>
       </c>
     </row>
   </sheetData>
@@ -6060,4 +6175,608 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62E7AE6-3934-45A7-854A-009E7AFDF34D}">
+  <dimension ref="B2:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="73.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.1152669560508163</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.61623464506821191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.5092637287326597E-2</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8.8065872702585729E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7.022243293438063E-2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6.1994895158563268E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5.6942272304401458E-2</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.370482898861996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.4320462562026919E-2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3.0580197703053438E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.11611732042606519</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.51101421698112581</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="11">
+        <v>7.5864324852313925E-2</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.21576244009501119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11">
+        <v>5.4092147284337422E-2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5.9523360931789691E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5.2766819098685948E-2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.7133981178591001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2.9880705371544889E-2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2.4844770849824609E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.53748865966219828</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.43130864289151521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="11">
+        <v>9.7727903761371956E-2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5.9223906860178942E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="11">
+        <v>8.9447304015370058E-2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3.2323815383556387E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11">
+        <v>8.2898090107465849E-2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="11">
+        <v>3.1589951142252742E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5.3850596476673528E-2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2.8608126689713711E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.10165121702788391</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="11">
+        <v>8.30622103447025E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="11">
+        <v>7.7038859301049811E-2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="11">
+        <v>7.7607528379210658E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="11">
+        <v>7.1524659283160388E-2</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="11">
+        <v>7.7121979169986921E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="11">
+        <v>7.016556279784561E-2</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="11">
+        <v>5.1793304403056913E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="12">
+        <v>6.3210227651744541E-2</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="12">
+        <v>4.997057673551808E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.11838685768141539</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.31549170067247118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.1138743853395264</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="11">
+        <v>7.3696975467879899E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="11">
+        <v>8.7562231442676261E-2</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="11">
+        <v>7.0723336112625296E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="11">
+        <v>5.3439661317618507E-2</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="11">
+        <v>4.9621319140833037E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="12">
+        <v>4.464857672422877E-2</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="12">
+        <v>3.8388163062539143E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.1484203091440941</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.1147799529534525</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.12247459773310709</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.10755110571597851</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="11">
+        <v>5.4076304409752432E-2</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="11">
+        <v>9.3645948538892534E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="11">
+        <v>5.2540399732300888E-2</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="11">
+        <v>8.062074355789052E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="12">
+        <v>5.1113281535184157E-2</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="12">
+        <v>7.9145263416188813E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/scripts/data/resultados/top5_impo_procesado.xlsx
+++ b/scripts/data/resultados/top5_impo_procesado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos\repos\impo_sectorial\scripts\data\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F6DE2-DD41-4BAD-9E07-1EFACCAFD966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C396887-9654-49F0-8D99-6909CD7878A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <calcPr calcId="124519"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -822,7 +822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +833,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -923,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -965,6 +971,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -5209,7 +5224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A46EE2E-051E-463D-B45B-E53E3725A195}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A46EE2E-051E-463D-B45B-E53E3725A195}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -12723,7 +12738,7 @@
   <dimension ref="B2:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13289,7 +13304,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C53" s="11">
@@ -13297,7 +13312,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="11">
@@ -13305,7 +13320,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="11">
@@ -13313,7 +13328,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="11">
@@ -13337,7 +13352,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="17" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="11">
@@ -13345,7 +13360,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C60" s="11">
@@ -13388,7 +13403,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="17" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="11">
@@ -13412,7 +13427,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C69" s="11">
@@ -13452,7 +13467,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="19" t="s">
         <v>223</v>
       </c>
       <c r="C74" s="12">
